--- a/input/aircraft_config.xlsx
+++ b/input/aircraft_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MScAE\1st year\Q3\Knowledge Based Engineering - Y2\assignment\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUDelft SID\Desktop\assignment\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12084" windowHeight="7524" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="aircraft" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="horizontal_tail" sheetId="7" r:id="rId3"/>
     <sheet name="vertical_tail" sheetId="6" r:id="rId4"/>
     <sheet name="fuselage" sheetId="4" r:id="rId5"/>
-    <sheet name="aircraft (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="fuel" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="318">
   <si>
     <t>main_wing_long_pos</t>
   </si>
@@ -628,1117 +628,18 @@
     <t>ht_engine_length_cones2</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'NACA0018'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'NACA0012'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>35.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <r>
-      <t>[[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'C_'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'C'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>[0.8, 0.8]</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1e-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.95</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>['flight_direction',                                       'flight_direction',                                       'flight_direction', 'flight_direction']</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>['flight_direction',                                       'flight_direction', 'flight_direction']</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF8888C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>['NACA0018', 'NACA0012']</t>
   </si>
   <si>
@@ -1787,321 +688,329 @@
     <t>[0, 0, 0]</t>
   </si>
   <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.8]</t>
+  </si>
+  <si>
+    <t>[10.]</t>
+  </si>
+  <si>
+    <t>[True]</t>
+  </si>
+  <si>
+    <t>['elevator']</t>
+  </si>
+  <si>
+    <t>The number of wing segments that this aircraft's horizontal tail has got. E.g., a wing with one kink has two segments.</t>
+  </si>
+  <si>
+    <t>vertical_tail_trans_pos</t>
+  </si>
+  <si>
+    <t>vt_n_wing_segments</t>
+  </si>
+  <si>
+    <t>vt_airfoil_names</t>
+  </si>
+  <si>
+    <t>vt_chords</t>
+  </si>
+  <si>
+    <t>vt_twists</t>
+  </si>
+  <si>
+    <t>vt_sweeps_le</t>
+  </si>
+  <si>
+    <t>vt_dihedral_angles</t>
+  </si>
+  <si>
+    <t>vt_spanwise_positions</t>
+  </si>
+  <si>
+    <t>vt_wing_cant</t>
+  </si>
+  <si>
+    <t>vt_n_spars</t>
+  </si>
+  <si>
+    <t>vt_spar_chordwise_positions</t>
+  </si>
+  <si>
+    <t>vt_spar_aspect_ratios</t>
+  </si>
+  <si>
+    <t>vt_spar_profiles</t>
+  </si>
+  <si>
+    <t>vt_spar_spanwise_positions_end</t>
+  </si>
+  <si>
+    <t>vt_n_ribs_wb</t>
+  </si>
+  <si>
+    <t>vt_ribs_wb_spanwise_reference_spars_idx</t>
+  </si>
+  <si>
+    <t>vt_ribs_wb_spanwise_positions</t>
+  </si>
+  <si>
+    <t>vt_ribs_wb_orientation_reference_spars</t>
+  </si>
+  <si>
+    <t>vt_ribs_wb_orientation_angles</t>
+  </si>
+  <si>
+    <t>vt_n_ribs_te</t>
+  </si>
+  <si>
+    <t>vt_ribs_te_spanwise_reference_spars_idx</t>
+  </si>
+  <si>
+    <t>vt_ribs_te_spanwise_positions</t>
+  </si>
+  <si>
+    <t>vt_ribs_te_orientation_reference_spars</t>
+  </si>
+  <si>
+    <t>vt_ribs_te_orientation_angles</t>
+  </si>
+  <si>
+    <t>vt_n_ribs_le</t>
+  </si>
+  <si>
+    <t>vt_ribs_le_spanwise_reference_spars_idx</t>
+  </si>
+  <si>
+    <t>vt_ribs_le_spanwise_positions</t>
+  </si>
+  <si>
+    <t>vt_ribs_le_orientation_reference_spars</t>
+  </si>
+  <si>
+    <t>vt_ribs_le_orientation_angles</t>
+  </si>
+  <si>
+    <t>vt_fuel_tank_boundaries</t>
+  </si>
+  <si>
+    <t>vt_n_movables</t>
+  </si>
+  <si>
+    <t>vt_movable_spanwise_starts</t>
+  </si>
+  <si>
+    <t>vt_movable_spanwise_ends</t>
+  </si>
+  <si>
+    <t>vt_movable_hingeline_starts</t>
+  </si>
+  <si>
+    <t>vt_movable_deflections</t>
+  </si>
+  <si>
+    <t>vt_movables_symmetric</t>
+  </si>
+  <si>
+    <t>vt_movables_names</t>
+  </si>
+  <si>
+    <t>vt_n_engines</t>
+  </si>
+  <si>
+    <t>vt_engine_spanwise_positions</t>
+  </si>
+  <si>
+    <t>vt_engine_overhangs</t>
+  </si>
+  <si>
+    <t>The number of wing segments that this aircraft's vertical tail has got. E.g., a wing with one kink has two segments.</t>
+  </si>
+  <si>
+    <t># Vertical tail positioning</t>
+  </si>
+  <si>
+    <t>[0.]</t>
+  </si>
+  <si>
+    <t>vt_semi_span</t>
+  </si>
+  <si>
+    <t>['flight_direction',                                       'flight_direction', 'flight_direction',                                       'flight_direction', 'flight_direction']</t>
+  </si>
+  <si>
+    <t>fuselage_tail_angle</t>
+  </si>
+  <si>
+    <t>fuselage_tail_length</t>
+  </si>
+  <si>
+    <t>fuselage_cockpit_length</t>
+  </si>
+  <si>
+    <t>fuselage_cabin_length</t>
+  </si>
+  <si>
+    <t>fuselage_diameter</t>
+  </si>
+  <si>
+    <t>fuselage_nose_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle the tail makes with the horizontal. </t>
+  </si>
+  <si>
+    <t>The length of the tail.</t>
+  </si>
+  <si>
+    <t>The length of the cabin.</t>
+  </si>
+  <si>
+    <t>The length of the cockpit part of the aircraft nose.</t>
+  </si>
+  <si>
+    <t>The diameter of the cabin section of the fuselage.</t>
+  </si>
+  <si>
+    <t>The length of the nose part (forward of the cockpit).</t>
+  </si>
+  <si>
+    <t>stability_margin</t>
+  </si>
+  <si>
+    <t>The stability margin of the aircraft, expressed as a fraction of the mean aerodynamic chord.</t>
+  </si>
+  <si>
+    <t>tail_type</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>The cruise speed of the aircraft.</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>The cruise mach of the aircraft.</t>
+  </si>
+  <si>
+    <t>air_density</t>
+  </si>
+  <si>
+    <t>[kg/m3]</t>
+  </si>
+  <si>
+    <t>The air density at cruise altitude.</t>
+  </si>
+  <si>
+    <t>mw_engine_thrusts</t>
+  </si>
+  <si>
+    <t>Cruise thrust of the engines, passed as a list of which the entry indices correspond to the engine indices for a semi-wing.</t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t># Fuselage parameters</t>
+  </si>
+  <si>
+    <t>['flight_direction',                                       'flight_direction', 'flight_direction',                                      'flight_direction', 'flight_direction']</t>
+  </si>
+  <si>
+    <t>[kg]</t>
+  </si>
+  <si>
+    <t>ZFM</t>
+  </si>
+  <si>
+    <t>The zero-fuel mass of this aircraft, the MTOM minus the mass of the usable fuel.</t>
+  </si>
+  <si>
+    <t>ult_load_factor</t>
+  </si>
+  <si>
+    <t>The ultimate load factor of this aircraft during its lifetime.</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>The density of the kerosene.</t>
+  </si>
+  <si>
+    <t>[1.79e-05, 1.79e-05]</t>
+  </si>
+  <si>
+    <t>[kg/N/s]</t>
+  </si>
+  <si>
+    <t>The thrust specific fuel consumptions of the engines.</t>
+  </si>
+  <si>
+    <t>reynolds</t>
+  </si>
+  <si>
+    <t>The Reynolds number.</t>
+  </si>
+  <si>
+    <t>g0</t>
+  </si>
+  <si>
+    <t>[m/s2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The graviational acceleration at sea-level. </t>
+  </si>
+  <si>
+    <t>mw_engine_specific_fuel_consumptions</t>
+  </si>
+  <si>
+    <t>ht_engine_thrusts</t>
+  </si>
+  <si>
+    <t>ht_engine_specific_fuel_consumptions</t>
+  </si>
+  <si>
+    <t>vt_engine_specific_fuel_consumptions</t>
+  </si>
+  <si>
+    <t>vt_engine_thrusts</t>
+  </si>
+  <si>
+    <t>The ratio of the fuel weight to the maximum take-off weight. Has a value between 0 and 1.</t>
+  </si>
+  <si>
+    <t>[50000., 50000.]</t>
+  </si>
+  <si>
     <t>[0, -1]</t>
   </si>
   <si>
-    <t>[0.2]</t>
-  </si>
-  <si>
-    <t>[0.8]</t>
-  </si>
-  <si>
-    <t>[10.]</t>
-  </si>
-  <si>
-    <t>[True]</t>
-  </si>
-  <si>
-    <t>['elevator']</t>
-  </si>
-  <si>
-    <t>The number of wing segments that this aircraft's horizontal tail has got. E.g., a wing with one kink has two segments.</t>
-  </si>
-  <si>
-    <t>vertical_tail_trans_pos</t>
-  </si>
-  <si>
-    <t>vt_n_wing_segments</t>
-  </si>
-  <si>
-    <t>vt_airfoil_names</t>
-  </si>
-  <si>
-    <t>vt_chords</t>
-  </si>
-  <si>
-    <t>vt_twists</t>
-  </si>
-  <si>
-    <t>vt_sweeps_le</t>
-  </si>
-  <si>
-    <t>vt_dihedral_angles</t>
-  </si>
-  <si>
-    <t>vt_spanwise_positions</t>
-  </si>
-  <si>
-    <t>vt_wing_cant</t>
-  </si>
-  <si>
-    <t>vt_n_spars</t>
-  </si>
-  <si>
-    <t>vt_spar_chordwise_positions</t>
-  </si>
-  <si>
-    <t>vt_spar_aspect_ratios</t>
-  </si>
-  <si>
-    <t>vt_spar_profiles</t>
-  </si>
-  <si>
-    <t>vt_spar_spanwise_positions_end</t>
-  </si>
-  <si>
-    <t>vt_n_ribs_wb</t>
-  </si>
-  <si>
-    <t>vt_ribs_wb_spanwise_reference_spars_idx</t>
-  </si>
-  <si>
-    <t>vt_ribs_wb_spanwise_positions</t>
-  </si>
-  <si>
-    <t>vt_ribs_wb_orientation_reference_spars</t>
-  </si>
-  <si>
-    <t>vt_ribs_wb_orientation_angles</t>
-  </si>
-  <si>
-    <t>vt_n_ribs_te</t>
-  </si>
-  <si>
-    <t>vt_ribs_te_spanwise_reference_spars_idx</t>
-  </si>
-  <si>
-    <t>vt_ribs_te_spanwise_positions</t>
-  </si>
-  <si>
-    <t>vt_ribs_te_orientation_reference_spars</t>
-  </si>
-  <si>
-    <t>vt_ribs_te_orientation_angles</t>
-  </si>
-  <si>
-    <t>vt_n_ribs_le</t>
-  </si>
-  <si>
-    <t>vt_ribs_le_spanwise_reference_spars_idx</t>
-  </si>
-  <si>
-    <t>vt_ribs_le_spanwise_positions</t>
-  </si>
-  <si>
-    <t>vt_ribs_le_orientation_reference_spars</t>
-  </si>
-  <si>
-    <t>vt_ribs_le_orientation_angles</t>
-  </si>
-  <si>
-    <t>vt_fuel_tank_boundaries</t>
-  </si>
-  <si>
-    <t>vt_n_movables</t>
-  </si>
-  <si>
-    <t>vt_movable_spanwise_starts</t>
-  </si>
-  <si>
-    <t>vt_movable_spanwise_ends</t>
-  </si>
-  <si>
-    <t>vt_movable_hingeline_starts</t>
-  </si>
-  <si>
-    <t>vt_movable_deflections</t>
-  </si>
-  <si>
-    <t>vt_movables_symmetric</t>
-  </si>
-  <si>
-    <t>vt_movables_names</t>
-  </si>
-  <si>
-    <t>vt_n_engines</t>
-  </si>
-  <si>
-    <t>vt_engine_spanwise_positions</t>
-  </si>
-  <si>
-    <t>vt_engine_overhangs</t>
-  </si>
-  <si>
-    <t>The number of wing segments that this aircraft's vertical tail has got. E.g., a wing with one kink has two segments.</t>
-  </si>
-  <si>
-    <t># Vertical tail positioning</t>
-  </si>
-  <si>
-    <t>[0.]</t>
-  </si>
-  <si>
-    <t>vt_semi_span</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>['flight_direction',                                       'flight_direction', 'flight_direction',                                       'flight_direction', 'flight_direction']</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'rudder'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.2"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>fuselage_tail_angle</t>
-  </si>
-  <si>
-    <t>fuselage_tail_length</t>
-  </si>
-  <si>
-    <t>fuselage_cockpit_length</t>
-  </si>
-  <si>
-    <t>fuselage_cabin_length</t>
-  </si>
-  <si>
-    <t>fuselage_diameter</t>
-  </si>
-  <si>
-    <t>fuselage_nose_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The angle the tail makes with the horizontal. </t>
-  </si>
-  <si>
-    <t>The length of the tail.</t>
-  </si>
-  <si>
-    <t>The length of the cabin.</t>
-  </si>
-  <si>
-    <t>The length of the cockpit part of the aircraft nose.</t>
-  </si>
-  <si>
-    <t>The diameter of the cabin section of the fuselage.</t>
-  </si>
-  <si>
-    <t>The length of the nose part (forward of the cockpit).</t>
-  </si>
-  <si>
-    <t>stability_margin</t>
-  </si>
-  <si>
-    <t>The stability margin of the aircraft, expressed as a fraction of the mean aerodynamic chord.</t>
-  </si>
-  <si>
-    <t>tail_type</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>[m/s]</t>
-  </si>
-  <si>
-    <t>The cruise speed of the aircraft.</t>
-  </si>
-  <si>
-    <t>mach</t>
-  </si>
-  <si>
-    <t>The cruise mach of the aircraft.</t>
-  </si>
-  <si>
-    <t>air_density</t>
-  </si>
-  <si>
-    <t>[kg/m3]</t>
-  </si>
-  <si>
-    <t>The air density at cruise altitude.</t>
-  </si>
-  <si>
-    <t>mw_engine_thrusts</t>
-  </si>
-  <si>
-    <t>Cruise thrust of the engines, passed as a list of which the entry indices correspond to the engine indices for a semi-wing.</t>
-  </si>
-  <si>
-    <t>[N]</t>
-  </si>
-  <si>
-    <t>[120000, 120000]</t>
-  </si>
-  <si>
-    <t>conventional</t>
-  </si>
-  <si>
-    <t># Fuselage parameters</t>
-  </si>
-  <si>
-    <t>['flight_direction',                                       'flight_direction', 'flight_direction',                                      'flight_direction', 'flight_direction']</t>
+    <t>['rudder']</t>
+  </si>
+  <si>
+    <t>fuel_fraction</t>
+  </si>
+  <si>
+    <t>[0, 2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,34 +1052,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7.2"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7.2"/>
-      <color rgb="FFA5C261"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7.2"/>
-      <color rgb="FFCC7832"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7.2"/>
-      <color rgb="FF6897BB"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7.2"/>
-      <color rgb="FF8888C6"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2302,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2353,12 +1245,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2379,23 +1265,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF8EA9DB"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF8EA9DB"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF8EA9DB"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -2496,7 +1394,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -2725,6 +1623,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="8" tint="0.39997558519241921"/>
@@ -2752,13 +1653,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Quantity"/>
     <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Units"/>
-    <tableColumn id="4" name="Remarks"/>
+    <tableColumn id="4" name="Remarks" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2817,7 +1718,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel472" displayName="Tabel472" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel4728" displayName="Tabel4728" ref="A1:D1048576" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Quantity"/>
@@ -3095,18 +1996,18 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -3120,137 +2021,191 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.05</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="7">
         <v>250</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8">
+        <f>1.5*2.5</f>
+        <v>3.75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B9" s="16">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B10" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="17"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -3266,22 +2221,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="14.6640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3295,15 +2250,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="60">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3345,15 +2300,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3381,7 +2336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +2350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +2364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3423,7 +2378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3437,7 +2392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +2406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3465,7 +2420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3479,15 +2434,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3501,7 +2456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="105">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3515,7 +2470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3529,7 +2484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3543,7 +2498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -3557,15 +2512,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -3579,7 +2534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -3593,7 +2548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3607,7 +2562,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -3621,7 +2576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="75">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -3635,15 +2590,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -3657,7 +2612,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3671,7 +2626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -3685,7 +2640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -3699,7 +2654,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="75">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3713,15 +2668,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3735,7 +2690,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -3749,7 +2704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="45">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -3763,7 +2718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -3777,7 +2732,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="75">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -3791,15 +2746,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" ht="75">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -3813,15 +2768,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -3835,7 +2790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -3849,7 +2804,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="30">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -3863,7 +2818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="30">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -3877,7 +2832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="45">
       <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
@@ -3891,7 +2846,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="30">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -3905,7 +2860,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="45">
       <c r="A50" s="2" t="s">
         <v>84</v>
       </c>
@@ -3919,20 +2874,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A51" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>9</v>
@@ -3941,7 +2896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="30">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -3955,7 +2910,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="75">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -3969,80 +2924,94 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="45">
       <c r="A55" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30">
+      <c r="A56" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A57" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30">
+      <c r="A62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4057,22 +3026,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="14.6640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4086,15 +3055,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
@@ -4108,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="75">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
@@ -4122,15 +3091,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
@@ -4141,15 +3110,15 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -4158,12 +3127,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>141</v>
@@ -4172,12 +3141,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -4186,12 +3155,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>143</v>
@@ -4200,12 +3169,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>143</v>
@@ -4214,12 +3183,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="60">
       <c r="A13" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -4228,7 +3197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>154</v>
       </c>
@@ -4242,7 +3211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="2" t="s">
         <v>155</v>
       </c>
@@ -4256,15 +3225,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>156</v>
       </c>
@@ -4278,12 +3247,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="105">
       <c r="A18" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -4292,7 +3261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="2" t="s">
         <v>158</v>
       </c>
@@ -4306,12 +3275,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -4320,12 +3289,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -4334,15 +3303,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="2" t="s">
         <v>161</v>
       </c>
@@ -4356,12 +3325,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -4370,12 +3339,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="45">
       <c r="A25" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -4384,12 +3353,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -4398,12 +3367,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="75">
       <c r="A27" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -4412,15 +3381,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="2" t="s">
         <v>166</v>
       </c>
@@ -4434,12 +3403,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -4448,12 +3417,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="45">
       <c r="A31" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -4462,12 +3431,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
@@ -4476,12 +3445,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="75">
       <c r="A33" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -4490,15 +3459,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A34" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="2" t="s">
         <v>171</v>
       </c>
@@ -4512,12 +3481,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>9</v>
@@ -4526,12 +3495,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -4540,12 +3509,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
@@ -4554,12 +3523,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="75">
       <c r="A39" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
@@ -4568,20 +3537,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A40" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" ht="75">
       <c r="A41" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -4590,15 +3559,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>177</v>
       </c>
@@ -4612,12 +3581,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>9</v>
@@ -4626,12 +3595,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -4640,12 +3609,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="30">
       <c r="A46" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -4654,12 +3623,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="45">
       <c r="A47" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>143</v>
@@ -4668,12 +3637,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="30">
       <c r="A48" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -4682,12 +3651,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="45">
       <c r="A49" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -4696,15 +3665,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4" ht="45">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -4718,7 +3687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="2" t="s">
         <v>185</v>
       </c>
@@ -4729,7 +3698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="75">
       <c r="A53" s="2" t="s">
         <v>186</v>
       </c>
@@ -4741,66 +3710,91 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:4" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30">
+      <c r="A55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A56" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="37"/>
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="B57" s="36"/>
+      <c r="C57" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="B58" s="36"/>
+      <c r="C58" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D59" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4815,22 +3809,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="14.6640625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4844,17 +3838,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3">
         <v>0.5</v>
@@ -4866,17 +3860,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -4885,15 +3879,15 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>192</v>
+        <v>220</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -4902,12 +3896,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>193</v>
+        <v>221</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>141</v>
@@ -4916,12 +3910,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>194</v>
+        <v>222</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>143</v>
@@ -4930,12 +3924,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>143</v>
@@ -4944,12 +3938,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>143</v>
@@ -4958,12 +3952,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="60">
       <c r="A12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>196</v>
+        <v>225</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -4972,11 +3966,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="23">
+        <v>261</v>
+      </c>
+      <c r="B13" s="2">
         <v>3.5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4986,9 +3980,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -5000,17 +3994,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -5022,12 +4016,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="105">
       <c r="A17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>197</v>
+        <v>228</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -5036,12 +4030,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>198</v>
+        <v>229</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -5050,12 +4044,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>199</v>
+        <v>230</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -5064,12 +4058,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>283</v>
+        <v>231</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -5078,17 +4072,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -5100,12 +4094,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>201</v>
+        <v>233</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -5114,12 +4108,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>202</v>
+        <v>234</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -5128,12 +4122,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>203</v>
+        <v>235</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -5142,12 +4136,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="75">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -5156,17 +4150,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -5178,12 +4172,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>205</v>
+        <v>238</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -5192,12 +4186,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="45">
       <c r="A30" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>206</v>
+        <v>239</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -5206,12 +4200,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>207</v>
+        <v>240</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -5220,12 +4214,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="75">
       <c r="A32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
@@ -5234,17 +4228,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A33" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="2" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -5256,12 +4250,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>208</v>
+        <v>243</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>9</v>
@@ -5270,12 +4264,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>209</v>
+        <v>244</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>9</v>
@@ -5284,12 +4278,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="2" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -5298,12 +4292,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="75">
       <c r="A38" s="2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
@@ -5312,20 +4306,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" ht="75">
       <c r="A40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>211</v>
+        <v>247</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -5334,17 +4328,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -5356,11 +4350,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B43" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5370,11 +4364,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B44" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5384,11 +4378,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5398,11 +4392,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="45">
       <c r="A46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5412,11 +4406,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="30">
       <c r="A47" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5426,12 +4420,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="45">
       <c r="A48" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -5440,17 +4434,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4" ht="45">
       <c r="A50" s="2" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5462,9 +4456,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="30">
       <c r="A51" s="2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -5473,9 +4467,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="75">
       <c r="A52" s="2" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
@@ -5485,66 +4479,88 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:4" ht="45">
+      <c r="A53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="30">
+      <c r="A56" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5562,42 +4578,42 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -5606,12 +4622,12 @@
         <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B4" s="10">
         <v>5</v>
@@ -5620,12 +4636,12 @@
         <v>141</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5634,12 +4650,12 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="14" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -5648,12 +4664,12 @@
         <v>141</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B7" s="10">
         <v>20</v>
@@ -5662,12 +4678,12 @@
         <v>141</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
@@ -5676,64 +4692,64 @@
         <v>141</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="17"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -5741,8 +4757,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5752,18 +4769,18 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -5777,145 +4794,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B2" s="7">
-        <v>30</v>
+        <v>840</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="28">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="10">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="17"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
